--- a/2020_09_12_10_46_49/TLT.xlsx
+++ b/2020_09_12_10_46_49/TLT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Valkyrie\Option Strategies\Option-Strategies\2020_09_12_10_46_49\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA9FE4-A798-482A-A3EE-EFF44F0A4DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D0627-1C3D-49DB-BC59-D14E61743955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,13 +226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11536,7 +11550,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE121"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
@@ -23158,7 +23172,7 @@
   <autoFilter ref="A1:AE121" xr:uid="{B5E6FA47-D451-4E13-AB43-216657B67C00}">
     <filterColumn colId="27">
       <customFilters>
-        <customFilter operator="greaterThan" val="700"/>
+        <customFilter operator="greaterThan" val="680"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -23170,8 +23184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E817626-953A-43A7-BF2A-A2192E5820EF}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23271,193 +23285,193 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>-140.30000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>-790</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1250.0000000046409</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>2710</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>61.61</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>38.39</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>0.46125461254783789</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4">
         <v>163.5</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="4">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4">
         <v>164</v>
       </c>
-      <c r="Q2">
-        <v>-20</v>
-      </c>
-      <c r="R2">
+      <c r="Q2" s="4">
+        <v>-20</v>
+      </c>
+      <c r="R2" s="4">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2">
+      <c r="S2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="4">
         <v>168</v>
       </c>
-      <c r="U2">
-        <v>10</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="4">
+        <v>10</v>
+      </c>
+      <c r="V2" s="4">
         <v>14</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>-360.00000000000011</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="4">
         <v>-59.999999999999979</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <v>39.999999999999993</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>-39.999999999999993</v>
       </c>
-      <c r="AA2">
-        <v>-20</v>
-      </c>
-      <c r="AB2">
+      <c r="AA2" s="4">
+        <v>-20</v>
+      </c>
+      <c r="AB2" s="4">
         <v>790</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>-2710</v>
       </c>
-      <c r="AD2">
-        <v>4</v>
-      </c>
-      <c r="AE2">
+      <c r="AD2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="4">
         <v>0.29151291512915128</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>-116.54</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>-1080</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>1540.00000000464</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>2920</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>58.87</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>41.13</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>0.52739726027556166</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="5">
         <v>163</v>
       </c>
-      <c r="M3" s="3">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3">
-        <v>4</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5">
         <v>163.5</v>
       </c>
-      <c r="Q3" s="3">
-        <v>-20</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="Q3" s="5">
+        <v>-20</v>
+      </c>
+      <c r="R3" s="5">
         <v>5</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="S3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5">
         <v>168</v>
       </c>
-      <c r="U3" s="3">
-        <v>10</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="U3" s="5">
+        <v>10</v>
+      </c>
+      <c r="V3" s="5">
         <v>14</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="5">
         <v>-419.99999999999989</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="5">
         <v>-40</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="5">
         <v>49.999999999999979</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="5">
         <v>-49.999999999999979</v>
       </c>
-      <c r="AA3" s="3">
-        <v>-20</v>
-      </c>
-      <c r="AB3" s="3">
+      <c r="AA3" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AB3" s="5">
         <v>1080</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="5">
         <v>-2920</v>
       </c>
-      <c r="AD3" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="3">
+      <c r="AD3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="5">
         <v>0.36986301369863012</v>
       </c>
     </row>
@@ -23746,98 +23760,98 @@
         <v>0.35658914728682217</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>-153.56</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>-899.99999999999955</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>1360.00000000464</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>2100</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>56.09</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>43.91</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>0.6476190476212571</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5">
         <v>163</v>
       </c>
-      <c r="M7" s="3">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3">
-        <v>4</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="5">
         <v>163.5</v>
       </c>
-      <c r="Q7" s="3">
-        <v>-20</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="5">
+        <v>-20</v>
+      </c>
+      <c r="R7" s="5">
         <v>5</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="3">
+      <c r="S7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="5">
         <v>167</v>
       </c>
-      <c r="U7" s="3">
-        <v>10</v>
-      </c>
-      <c r="V7" s="3">
+      <c r="U7" s="5">
+        <v>10</v>
+      </c>
+      <c r="V7" s="5">
         <v>12</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="5">
         <v>-339.99999999999989</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="5">
         <v>-20.000000000000021</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="5">
         <v>29.999999999999972</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="5">
         <v>-29.999999999999972</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="5">
         <v>-10</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="5">
         <v>899.99999999999955</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="5">
         <v>-2100</v>
       </c>
-      <c r="AD7" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="3">
+      <c r="AD7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="5">
         <v>0.42857142857142838</v>
       </c>
     </row>
